--- a/spliced/struggle/2023-03-25_18-15-22/gyroscope_selected.xlsx
+++ b/spliced/struggle/2023-03-25_18-15-22/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0087048299610614</v>
+        <v>-5.196477890014648</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0300851128995418</v>
+        <v>-3.036305665969849</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0146607663482427</v>
+        <v>4.782464027404785</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.040775254368782</v>
+        <v>-5.916993618011475</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0453567430377006</v>
+        <v>-3.426343202590942</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0752891451120376</v>
+        <v>-1.53388261795044</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.233197808265686</v>
+        <v>0.4529565870761871</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.3972151279449463</v>
+        <v>0.4115704596042633</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1840231567621231</v>
+        <v>-1.645212769508362</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-1.600466966629028</v>
+        <v>3.627165079116821</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.80984103679657</v>
+        <v>3.22368860244751</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5542075037956238</v>
+        <v>-1.423163294792175</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-2.736370801925659</v>
+        <v>1.755779385566711</v>
       </c>
       <c r="B6" t="n">
-        <v>-3.40969705581665</v>
+        <v>0.2069306075572967</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9097310900688172</v>
+        <v>-0.0197004042565822</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-5.196477890014648</v>
+        <v>1.32527220249176</v>
       </c>
       <c r="B7" t="n">
-        <v>-3.036305665969849</v>
+        <v>3.478113889694214</v>
       </c>
       <c r="C7" t="n">
-        <v>4.782464027404785</v>
+        <v>4.531856536865234</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-5.916993618011475</v>
+        <v>-0.9728028774261476</v>
       </c>
       <c r="B8" t="n">
-        <v>-3.426343202590942</v>
+        <v>3.588375091552734</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.53388261795044</v>
+        <v>-0.8292495608329773</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.4529565870761871</v>
+        <v>0.9275988936424256</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4115704596042633</v>
+        <v>3.912744522094727</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.645212769508362</v>
+        <v>-0.8049677014350891</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3.627165079116821</v>
+        <v>0.65958172082901</v>
       </c>
       <c r="B10" t="n">
-        <v>3.22368860244751</v>
+        <v>-0.1707368344068527</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.423163294792175</v>
+        <v>0.1705841124057769</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.755779385566711</v>
+        <v>-0.0062613687478005</v>
       </c>
       <c r="B11" t="n">
-        <v>0.2069306075572967</v>
+        <v>-1.035263895988464</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.0197004042565822</v>
+        <v>2.51661205291748</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.32527220249176</v>
+        <v>-0.0650571510195732</v>
       </c>
       <c r="B12" t="n">
-        <v>3.478113889694214</v>
+        <v>-0.7725918292999268</v>
       </c>
       <c r="C12" t="n">
-        <v>4.531856536865234</v>
+        <v>-0.6349944472312927</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.9728028774261476</v>
+        <v>1.70736837387085</v>
       </c>
       <c r="B13" t="n">
-        <v>3.588375091552734</v>
+        <v>-1.938886284828186</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.8292495608329773</v>
+        <v>-2.866790533065796</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.9275988936424256</v>
+        <v>0.0068722339347004</v>
       </c>
       <c r="B14" t="n">
-        <v>3.912744522094727</v>
+        <v>-3.644727468490601</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.8049677014350891</v>
+        <v>-0.365755558013916</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.65958172082901</v>
+        <v>-0.09926560521125791</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.1707368344068527</v>
+        <v>-5.367214679718018</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1705841124057769</v>
+        <v>-0.7640396952629089</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.0062613687478005</v>
+        <v>0.1264491081237793</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.035263895988464</v>
+        <v>-3.759417533874512</v>
       </c>
       <c r="C16" t="n">
-        <v>2.51661205291748</v>
+        <v>-0.6985244154930115</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.0650571510195732</v>
+        <v>0.3510948121547699</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.7725918292999268</v>
+        <v>-1.851074457168579</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.6349944472312927</v>
+        <v>-0.6296493411064148</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.70736837387085</v>
+        <v>-0.2174680233001709</v>
       </c>
       <c r="B18" t="n">
-        <v>-1.938886284828186</v>
+        <v>1.732872009277344</v>
       </c>
       <c r="C18" t="n">
-        <v>-2.866790533065796</v>
+        <v>-2.470797300338745</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.0068722339347004</v>
+        <v>1.422094345092773</v>
       </c>
       <c r="B19" t="n">
-        <v>-3.644727468490601</v>
+        <v>4.435187339782715</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.365755558013916</v>
+        <v>0.8324565887451172</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.09926560521125791</v>
+        <v>2.657721996307373</v>
       </c>
       <c r="B20" t="n">
-        <v>-5.367214679718018</v>
+        <v>5.389358520507812</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.7640396952629089</v>
+        <v>2.652835130691528</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.1264491081237793</v>
+        <v>0.5099197626113892</v>
       </c>
       <c r="B21" t="n">
-        <v>-3.759417533874512</v>
+        <v>0.4361577928066253</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.6985244154930115</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>0.3510948121547699</v>
-      </c>
-      <c r="B22" t="n">
-        <v>-1.851074457168579</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.6296493411064148</v>
+        <v>2.850908041000366</v>
       </c>
     </row>
   </sheetData>
